--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.943363540716</v>
+        <v>8.191447666666667</v>
       </c>
       <c r="H2">
-        <v>7.943363540716</v>
+        <v>24.574343</v>
       </c>
       <c r="I2">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="J2">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N2">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q2">
-        <v>54.18471885056596</v>
+        <v>66.60657777642066</v>
       </c>
       <c r="R2">
-        <v>54.18471885056596</v>
+        <v>599.459199987786</v>
       </c>
       <c r="S2">
-        <v>0.003548845484236763</v>
+        <v>0.003884950262335869</v>
       </c>
       <c r="T2">
-        <v>0.003548845484236763</v>
+        <v>0.003884950262335869</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.943363540716</v>
+        <v>8.191447666666667</v>
       </c>
       <c r="H3">
-        <v>7.943363540716</v>
+        <v>24.574343</v>
       </c>
       <c r="I3">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="J3">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P3">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q3">
-        <v>1927.653942047937</v>
+        <v>1993.605032979803</v>
       </c>
       <c r="R3">
-        <v>1927.653942047937</v>
+        <v>17942.44529681823</v>
       </c>
       <c r="S3">
-        <v>0.1262523112147986</v>
+        <v>0.116280653569486</v>
       </c>
       <c r="T3">
-        <v>0.1262523112147986</v>
+        <v>0.116280653569486</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.943363540716</v>
+        <v>8.191447666666667</v>
       </c>
       <c r="H4">
-        <v>7.943363540716</v>
+        <v>24.574343</v>
       </c>
       <c r="I4">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="J4">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N4">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q4">
-        <v>701.5692281630832</v>
+        <v>851.4406822427605</v>
       </c>
       <c r="R4">
-        <v>701.5692281630832</v>
+        <v>7662.966140184845</v>
       </c>
       <c r="S4">
-        <v>0.04594950089364584</v>
+        <v>0.04966183239357835</v>
       </c>
       <c r="T4">
-        <v>0.04594950089364584</v>
+        <v>0.04966183239357837</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.943363540716</v>
+        <v>8.191447666666667</v>
       </c>
       <c r="H5">
-        <v>7.943363540716</v>
+        <v>24.574343</v>
       </c>
       <c r="I5">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="J5">
-        <v>0.1903069472624277</v>
+        <v>0.185794284429433</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N5">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q5">
-        <v>222.2493108719378</v>
+        <v>273.7479362494515</v>
       </c>
       <c r="R5">
-        <v>222.2493108719378</v>
+        <v>2463.731426245064</v>
       </c>
       <c r="S5">
-        <v>0.01455628966974645</v>
+        <v>0.01596684820403274</v>
       </c>
       <c r="T5">
-        <v>0.01455628966974645</v>
+        <v>0.01596684820403274</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.2165418531815</v>
+        <v>17.317702</v>
       </c>
       <c r="H6">
-        <v>17.2165418531815</v>
+        <v>51.95310600000001</v>
       </c>
       <c r="I6">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808575</v>
       </c>
       <c r="J6">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808576</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N6">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q6">
-        <v>117.4406125455457</v>
+        <v>140.814287304268</v>
       </c>
       <c r="R6">
-        <v>117.4406125455457</v>
+        <v>1267.328585738412</v>
       </c>
       <c r="S6">
-        <v>0.007691810465007254</v>
+        <v>0.00821325041258939</v>
       </c>
       <c r="T6">
-        <v>0.007691810465007254</v>
+        <v>0.008213250412589393</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.2165418531815</v>
+        <v>17.317702</v>
       </c>
       <c r="H7">
-        <v>17.2165418531815</v>
+        <v>51.95310600000001</v>
       </c>
       <c r="I7">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808575</v>
       </c>
       <c r="J7">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808576</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P7">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q7">
-        <v>4178.020381618736</v>
+        <v>4214.719945942531</v>
       </c>
       <c r="R7">
-        <v>4178.020381618736</v>
+        <v>37932.47951348279</v>
       </c>
       <c r="S7">
-        <v>0.2736407806276168</v>
+        <v>0.2458312362875697</v>
       </c>
       <c r="T7">
-        <v>0.2736407806276168</v>
+        <v>0.2458312362875698</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.2165418531815</v>
+        <v>17.317702</v>
       </c>
       <c r="H8">
-        <v>17.2165418531815</v>
+        <v>51.95310600000001</v>
       </c>
       <c r="I8">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808575</v>
       </c>
       <c r="J8">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808576</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N8">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q8">
-        <v>1520.589598809325</v>
+        <v>1800.047635750444</v>
       </c>
       <c r="R8">
-        <v>1520.589598809325</v>
+        <v>16200.42872175399</v>
       </c>
       <c r="S8">
-        <v>0.09959150191392939</v>
+        <v>0.1049910649695827</v>
       </c>
       <c r="T8">
-        <v>0.09959150191392939</v>
+        <v>0.1049910649695827</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.2165418531815</v>
+        <v>17.317702</v>
       </c>
       <c r="H9">
-        <v>17.2165418531815</v>
+        <v>51.95310600000001</v>
       </c>
       <c r="I9">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808575</v>
       </c>
       <c r="J9">
-        <v>0.4124735706354766</v>
+        <v>0.3927913821808576</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N9">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q9">
-        <v>481.7058344181693</v>
+        <v>578.7359421673654</v>
       </c>
       <c r="R9">
-        <v>481.7058344181693</v>
+        <v>5208.623479506288</v>
       </c>
       <c r="S9">
-        <v>0.03154947762892316</v>
+        <v>0.03375583051111571</v>
       </c>
       <c r="T9">
-        <v>0.03154947762892316</v>
+        <v>0.03375583051111572</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.1488352228794</v>
+        <v>12.35128266666667</v>
       </c>
       <c r="H10">
-        <v>11.1488352228794</v>
+        <v>37.053848</v>
       </c>
       <c r="I10">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="J10">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N10">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q10">
-        <v>76.05046640085607</v>
+        <v>100.4311695628107</v>
       </c>
       <c r="R10">
-        <v>76.05046640085607</v>
+        <v>903.880526065296</v>
       </c>
       <c r="S10">
-        <v>0.004980949610629173</v>
+        <v>0.005857831336860294</v>
       </c>
       <c r="T10">
-        <v>0.004980949610629173</v>
+        <v>0.005857831336860295</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.1488352228794</v>
+        <v>12.35128266666667</v>
       </c>
       <c r="H11">
-        <v>11.1488352228794</v>
+        <v>37.053848</v>
       </c>
       <c r="I11">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="J11">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P11">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q11">
-        <v>2705.541054046886</v>
+        <v>3006.010694327357</v>
       </c>
       <c r="R11">
-        <v>2705.541054046886</v>
+        <v>27054.09624894621</v>
       </c>
       <c r="S11">
-        <v>0.1772002763094742</v>
+        <v>0.1753310622670316</v>
       </c>
       <c r="T11">
-        <v>0.1772002763094742</v>
+        <v>0.1753310622670316</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.1488352228794</v>
+        <v>12.35128266666667</v>
       </c>
       <c r="H12">
-        <v>11.1488352228794</v>
+        <v>37.053848</v>
       </c>
       <c r="I12">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="J12">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N12">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q12">
-        <v>984.681071455514</v>
+        <v>1283.824907174102</v>
       </c>
       <c r="R12">
-        <v>984.681071455514</v>
+        <v>11554.42416456692</v>
       </c>
       <c r="S12">
-        <v>0.06449200158232102</v>
+        <v>0.0748814317808264</v>
       </c>
       <c r="T12">
-        <v>0.06449200158232102</v>
+        <v>0.07488143178082642</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.1488352228794</v>
+        <v>12.35128266666667</v>
       </c>
       <c r="H13">
-        <v>11.1488352228794</v>
+        <v>37.053848</v>
       </c>
       <c r="I13">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="J13">
-        <v>0.2671035746913278</v>
+        <v>0.2801455637905346</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N13">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q13">
-        <v>311.9359868913148</v>
+        <v>412.7644193824783</v>
       </c>
       <c r="R13">
-        <v>311.9359868913148</v>
+        <v>3714.879774442304</v>
       </c>
       <c r="S13">
-        <v>0.02043034718890339</v>
+        <v>0.02407523840581628</v>
       </c>
       <c r="T13">
-        <v>0.02043034718890339</v>
+        <v>0.02407523840581628</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.43100485747704</v>
+        <v>6.228371</v>
       </c>
       <c r="H14">
-        <v>5.43100485747704</v>
+        <v>18.685113</v>
       </c>
       <c r="I14">
-        <v>0.1301159074107678</v>
+        <v>0.1412687695991749</v>
       </c>
       <c r="J14">
-        <v>0.1301159074107678</v>
+        <v>0.1412687695991749</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N14">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q14">
-        <v>37.04695998993971</v>
+        <v>50.644342039814</v>
       </c>
       <c r="R14">
-        <v>37.04695998993971</v>
+        <v>455.799078358326</v>
       </c>
       <c r="S14">
-        <v>0.002426402488634936</v>
+        <v>0.002953923718372668</v>
       </c>
       <c r="T14">
-        <v>0.002426402488634936</v>
+        <v>0.002953923718372669</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.43100485747704</v>
+        <v>6.228371</v>
       </c>
       <c r="H15">
-        <v>5.43100485747704</v>
+        <v>18.685113</v>
       </c>
       <c r="I15">
-        <v>0.1301159074107678</v>
+        <v>0.1412687695991749</v>
       </c>
       <c r="J15">
-        <v>0.1301159074107678</v>
+        <v>0.1412687695991749</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P15">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q15">
-        <v>1317.967869547293</v>
+        <v>1515.838503539906</v>
       </c>
       <c r="R15">
-        <v>1317.967869547293</v>
+        <v>13642.54653185915</v>
       </c>
       <c r="S15">
-        <v>0.08632072697675731</v>
+        <v>0.08841404841055971</v>
       </c>
       <c r="T15">
-        <v>0.08632072697675731</v>
+        <v>0.08841404841055972</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.43100485747704</v>
+        <v>6.228371</v>
       </c>
       <c r="H16">
-        <v>5.43100485747704</v>
+        <v>18.685113</v>
       </c>
       <c r="I16">
-        <v>0.1301159074107678</v>
+        <v>0.1412687695991749</v>
       </c>
       <c r="J16">
-        <v>0.1301159074107678</v>
+        <v>0.1412687695991749</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N16">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q16">
-        <v>479.6741161952002</v>
+        <v>647.3933142588216</v>
       </c>
       <c r="R16">
-        <v>479.6741161952002</v>
+        <v>5826.539828329395</v>
       </c>
       <c r="S16">
-        <v>0.03141640959435957</v>
+        <v>0.03776039709631594</v>
       </c>
       <c r="T16">
-        <v>0.03141640959435957</v>
+        <v>0.03776039709631595</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.43100485747704</v>
+        <v>6.228371</v>
       </c>
       <c r="H17">
-        <v>5.43100485747704</v>
+        <v>18.685113</v>
       </c>
       <c r="I17">
-        <v>0.1301159074107678</v>
+        <v>0.1412687695991749</v>
       </c>
       <c r="J17">
-        <v>0.1301159074107678</v>
+        <v>0.1412687695991749</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N17">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q17">
-        <v>151.9554129342567</v>
+        <v>208.1443692040027</v>
       </c>
       <c r="R17">
-        <v>151.9554129342567</v>
+        <v>1873.299322836024</v>
       </c>
       <c r="S17">
-        <v>0.009952368351015942</v>
+        <v>0.01214040037392653</v>
       </c>
       <c r="T17">
-        <v>0.009952368351015942</v>
+        <v>0.01214040037392653</v>
       </c>
     </row>
   </sheetData>
